--- a/Sitios/listaContactos.xlsx
+++ b/Sitios/listaContactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Sitios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09021150-BC63-47D7-8637-CB47E035357F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C9E8B-F016-40FC-A415-1E0114AB8FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Movil</t>
   </si>
@@ -53,6 +53,42 @@
   </si>
   <si>
     <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\B.jpeg</t>
+  </si>
+  <si>
+    <t>52_7712958892</t>
+  </si>
+  <si>
+    <t>52_7711893563</t>
+  </si>
+  <si>
+    <t>52_5546170355</t>
+  </si>
+  <si>
+    <t>52_7716832262</t>
+  </si>
+  <si>
+    <t>52_7711299712</t>
+  </si>
+  <si>
+    <t>52_7715661356</t>
+  </si>
+  <si>
+    <t>52_3318400745</t>
+  </si>
+  <si>
+    <t>52_7716840383</t>
+  </si>
+  <si>
+    <t>52_7715665781</t>
+  </si>
+  <si>
+    <t>52_7717740545</t>
+  </si>
+  <si>
+    <t>52_4444110504</t>
+  </si>
+  <si>
+    <t>52_7711327205</t>
   </si>
 </sst>
 </file>
@@ -466,10 +502,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -523,6 +559,138 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sitios/listaContactos.xlsx
+++ b/Sitios/listaContactos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Sitios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Sitios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C9E8B-F016-40FC-A415-1E0114AB8FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C82B80-5B8C-410F-92B9-5C3A7A62481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Movil</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>Imagen</t>
-  </si>
-  <si>
-    <t>52_7721122615</t>
-  </si>
-  <si>
-    <t>52_7732029733</t>
-  </si>
-  <si>
-    <t>52_7721339673</t>
   </si>
   <si>
     <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨
@@ -49,53 +40,101 @@
 📩 Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\A.jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\B.jpeg</t>
-  </si>
-  <si>
-    <t>52_7712958892</t>
-  </si>
-  <si>
-    <t>52_7711893563</t>
-  </si>
-  <si>
-    <t>52_5546170355</t>
-  </si>
-  <si>
-    <t>52_7716832262</t>
-  </si>
-  <si>
-    <t>52_7711299712</t>
-  </si>
-  <si>
-    <t>52_7715661356</t>
-  </si>
-  <si>
-    <t>52_3318400745</t>
-  </si>
-  <si>
-    <t>52_7716840383</t>
-  </si>
-  <si>
-    <t>52_7715665781</t>
-  </si>
-  <si>
-    <t>52_7717740545</t>
-  </si>
-  <si>
-    <t>52_4444110504</t>
-  </si>
-  <si>
-    <t>52_7711327205</t>
+    <t>52_5548397099</t>
+  </si>
+  <si>
+    <t>52_7711091796</t>
+  </si>
+  <si>
+    <t>52_7715696006</t>
+  </si>
+  <si>
+    <t>52_5568852665</t>
+  </si>
+  <si>
+    <t>52_71720002321</t>
+  </si>
+  <si>
+    <t>52_7711046556</t>
+  </si>
+  <si>
+    <t>52_7712197645</t>
+  </si>
+  <si>
+    <t>52_7712195749</t>
+  </si>
+  <si>
+    <t>52_7711443147</t>
+  </si>
+  <si>
+    <t>52_7713829882</t>
+  </si>
+  <si>
+    <t>52_7711632080</t>
+  </si>
+  <si>
+    <t>52_7711164687</t>
+  </si>
+  <si>
+    <t>52_7717120231</t>
+  </si>
+  <si>
+    <t>52_7712178854</t>
+  </si>
+  <si>
+    <t>52_7717014006</t>
+  </si>
+  <si>
+    <t>52_7711549822</t>
+  </si>
+  <si>
+    <t>52_7712343199</t>
+  </si>
+  <si>
+    <t>52_7711437977</t>
+  </si>
+  <si>
+    <t>52_7711121502</t>
+  </si>
+  <si>
+    <t>52_7711316514</t>
+  </si>
+  <si>
+    <t>52_7711048629</t>
+  </si>
+  <si>
+    <t>52_7712097593</t>
+  </si>
+  <si>
+    <t>52_7711617541</t>
+  </si>
+  <si>
+    <t>52_7711022429</t>
+  </si>
+  <si>
+    <t>52_7711859337</t>
+  </si>
+  <si>
+    <t>52_7711872425</t>
+  </si>
+  <si>
+    <t>52_7712332922</t>
+  </si>
+  <si>
+    <t>52_7711073646</t>
+  </si>
+  <si>
+    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +148,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -148,19 +200,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -170,11 +209,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,13 +236,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +247,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,196 +562,500 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" style="4"/>
-    <col min="2" max="2" width="55.5703125" style="7"/>
-    <col min="3" max="3" width="55.5703125" style="4"/>
+    <col min="1" max="1" width="55.5703125" style="3"/>
+    <col min="2" max="2" width="55.5703125" style="6"/>
+    <col min="3" max="3" width="55.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sitios/listaContactos.xlsx
+++ b/Sitios/listaContactos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7711276559</t>
+          <t>7712298632</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,7 +471,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7713976304</t>
+          <t>7711258720</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7712341335</t>
+          <t>7717155410</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7712066354</t>
+          <t>5583699920</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7711927247</t>
+          <t>7715690454</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7711181766</t>
+          <t>7711615285</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7711001034</t>
+          <t>7711575091</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7717471797</t>
+          <t>7713187830</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7712667033</t>
+          <t>7717120945</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7711604307</t>
+          <t>7711248373</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -635,7 +635,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7711987953</t>
+          <t>7711519561</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -653,7 +653,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7712214288</t>
+          <t>7711468170</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7711072794</t>
+          <t>7711015664</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -689,7 +689,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5539181341</t>
+          <t>7711227813</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7711854204</t>
+          <t>7717091232</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7711313225</t>
+          <t>7713031132</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7713021136</t>
+          <t>7713496839</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7711301465</t>
+          <t>7711301339</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7712434024</t>
+          <t>7711004270</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7712058567</t>
+          <t>7717021603</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7716992349</t>
+          <t>7711405885</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7711328389</t>
+          <t>7715268539</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7711277803</t>
+          <t>7712076789</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7711111329</t>
+          <t>7712894116</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7711396465</t>
+          <t>7711869908</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -905,6 +905,466 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7711809278</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7712141045</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7712950081</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7712444491</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7712994514</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7712292105</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7711393462</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7711372699</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7717470972</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7712285031</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7717724295</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7712955716</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7712167964</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7716992902</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7711566394</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7714100900</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7712052619</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7712078109</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7711991969</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7711393226</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7721015566</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7711255859</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>¡Hola! 👋🏼 ¿Estás listo para llevar tu negocio al siguiente nivel? 🌐✨ 🚀 
+Transforma tu presencia en línea y atrapa a esos clientes que están buscando lo que ofreces. ¡Imagina un sitio web profesional y atractivo que convierta visitantes en compradores fieles! 🛍️🔥 
+¿Listo para comenzar? Responde a este mensaje y uno de nuestros expertos te guiará en el proceso. ¡Es tu momento de brillar en internet! 🌐🌟</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\B.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7712180247</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7712954824</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7716834318</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>⏳ No pierdas más clientes. Contáctanos ahora y asegura tu lugar. ¡Es tu momento de destacar en internet! 🌟 📩 
+Escríbenos ya para obtener esta oferta exclusiva. ¡No esperes más! 😊</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\A.jpeg</t>
         </is>
       </c>
     </row>
